--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simen\Tables2\tables\Scripts\Kamper\V23\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73EC55D-D53D-46D6-A9F9-B02C18E59747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>Week 1:</t>
   </si>
@@ -28,9 +22,15 @@
     <t>H</t>
   </si>
   <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
     <t>Dato</t>
   </si>
   <si>
@@ -74,16 +74,13 @@
   </si>
   <si>
     <t>v</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,19 +143,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -200,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,27 +221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,24 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,27 +430,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.703125" customWidth="1"/>
-    <col min="2" max="2" width="5.703125" customWidth="1"/>
-    <col min="3" max="3" width="12.703125" customWidth="1"/>
-    <col min="4" max="4" width="5.703125" customWidth="1"/>
-    <col min="5" max="5" width="18.703125" customWidth="1"/>
-    <col min="6" max="6" width="6.703125" customWidth="1"/>
-    <col min="7" max="7" width="5.703125" customWidth="1"/>
-    <col min="8" max="8" width="6.703125" customWidth="1"/>
-    <col min="9" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,246 +456,246 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -503,8 +503,14 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -481,8 +481,14 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
         <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -498,8 +498,14 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -602,6 +602,12 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
@@ -617,6 +623,12 @@
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>10</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -661,6 +661,12 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
@@ -677,6 +683,12 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -707,6 +719,12 @@
     <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>9</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -563,6 +563,12 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -571,6 +577,12 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -741,6 +753,12 @@
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>11</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>

--- a/Scripts/Kamper/V23/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/D-sluttspill.xlsx
@@ -555,6 +555,12 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
